--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.902</v>
+        <v>-21.944</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.028</v>
+        <v>-19.884</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.317</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.796</v>
+        <v>-21.734</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.391</v>
       </c>
     </row>
     <row r="28">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.996</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.401</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>17.062</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.962</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="52">
@@ -1324,12 +1324,12 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.478</v>
+        <v>16.543</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.01</v>
+        <v>-22.013</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.688</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="56">
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.172</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.17</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.766</v>
+        <v>16.453</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.066</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.608</v>
+        <v>-21.648</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.558</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="74">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.162</v>
+        <v>-21.23</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-21.997</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.362</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.254</v>
+        <v>16.537</v>
       </c>
     </row>
     <row r="91">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.986</v>
+        <v>-21.524</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
